--- a/pubmed_validation_sheets/12729371 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/12729371 DISNET VALIDATION.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/IdeaProjects/disnet_rest/tmp/excel/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8C75C598-62BF-7844-9BB8-70D8399AB9AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F701A1AA-1598-0D4C-B50B-01CA54585A7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="460" windowWidth="20920" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="38480" yWindow="460" windowWidth="25320" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -215,15 +221,6 @@
     <t>Polyclonal hypergammaglobulinemia</t>
   </si>
   <si>
-    <t>epidermis</t>
-  </si>
-  <si>
-    <t>Epidermis</t>
-  </si>
-  <si>
-    <t>[tisu]</t>
-  </si>
-  <si>
     <t>abnormalities</t>
   </si>
   <si>
@@ -255,18 +252,70 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>nodules</t>
+  </si>
+  <si>
+    <t>Nodule</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>hyperchromasia</t>
+  </si>
+  <si>
+    <t>Hyperchromatism</t>
+  </si>
+  <si>
+    <t>[comd]</t>
+  </si>
+  <si>
+    <t>lung, metastases</t>
+  </si>
+  <si>
+    <t>Secondary malignant neoplasm of lung</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>lymphoproliferative, disorder</t>
+  </si>
+  <si>
+    <t>Lymphoproliferative disorder</t>
+  </si>
+  <si>
+    <t>plaques</t>
+  </si>
+  <si>
+    <t>Senile plaque</t>
+  </si>
+  <si>
+    <t>angioimmunoblastic, lymphadenopathy, with, dysproteinaemia</t>
+  </si>
+  <si>
+    <t>Angioimmunoblastic lymphadenopathy</t>
+  </si>
+  <si>
+    <t>t, cell, non, hodgkin, lymphoma</t>
+  </si>
+  <si>
+    <t>T-cell lymphoma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,6 +330,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,16 +390,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,44 +544,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +595,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +635,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -597,8 +657,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,7 +717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -708,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -909,14 +970,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
@@ -928,37 +989,37 @@
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="124" customHeight="1" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:14" ht="124" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1010,10 +1071,14 @@
         <v>11</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1039,10 +1104,14 @@
         <v>11</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1068,10 +1137,14 @@
         <v>11</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1097,10 +1170,14 @@
         <v>11</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1126,10 +1203,14 @@
         <v>11</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1155,10 +1236,14 @@
         <v>11</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1186,8 +1271,12 @@
       <c r="I10" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1213,10 +1302,14 @@
         <v>11</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1242,10 +1335,14 @@
         <v>11</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1271,10 +1368,14 @@
         <v>11</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1300,10 +1401,14 @@
         <v>11</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1329,10 +1434,14 @@
         <v>11</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1360,8 +1469,12 @@
       <c r="I16" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1389,8 +1502,12 @@
       <c r="I17" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1418,8 +1535,12 @@
       <c r="I18" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1447,8 +1568,12 @@
       <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1476,8 +1601,12 @@
       <c r="I20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1505,8 +1634,12 @@
       <c r="I21" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1534,8 +1667,12 @@
       <c r="I22" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1563,8 +1700,12 @@
       <c r="I23" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1592,8 +1733,12 @@
       <c r="I24" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1621,8 +1766,12 @@
       <c r="I25" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1633,7 +1782,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E26" s="10" t="b">
         <v>0</v>
@@ -1650,19 +1799,23 @@
       <c r="I26" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E27" s="10" t="b">
         <v>0</v>
@@ -1679,19 +1832,23 @@
       <c r="I27" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E28" s="10" t="b">
         <v>0</v>
@@ -1708,19 +1865,23 @@
       <c r="I28" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E29" s="10" t="b">
         <v>0</v>
@@ -1737,34 +1898,245 @@
       <c r="I29" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A4:I35">
+      <sortCondition ref="A3:A35"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>